--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoNoronhaBlanco\Documents\Projeto_Lote45\Versão 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC9E813-3C37-472E-A64A-29A881D4E90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728279A-6815-40DF-B0C7-FBA32C515626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19350" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atualização de preços" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -103,34 +103,13 @@
     <t>Clean</t>
   </si>
   <si>
-    <t>Produto Atv 1</t>
-  </si>
-  <si>
-    <t>Produto Atv 2</t>
-  </si>
-  <si>
-    <t>Produto Atv 4</t>
-  </si>
-  <si>
-    <t>Produto Atv 5</t>
-  </si>
-  <si>
-    <t>Produto Atv 3</t>
-  </si>
-  <si>
     <t>MktSource</t>
   </si>
   <si>
-    <t>Mrkt Source 1</t>
+    <t>ABCB4</t>
   </si>
   <si>
-    <t>Mkrt Source 2</t>
-  </si>
-  <si>
-    <t>Mkrt Source 3</t>
-  </si>
-  <si>
-    <t>Mkrt Source 4</t>
+    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -235,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -243,6 +222,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +507,7 @@
   <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -569,16 +549,16 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>44336</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>16.62</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF($I$1="","",$I$1)</f>
@@ -587,10 +567,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>44337</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -605,13 +585,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>44327</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>44338</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -622,13 +602,13 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>44339</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>25</v>
@@ -640,11 +620,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>44326</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>44348</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>30</v>
@@ -2604,163 +2586,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100199BC4213F3CB24585709D692FB15876" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f3d6bc3c4c09fd003da19acc96b90d8b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77639793-85bb-4871-82ee-6889da43f668" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9020acd173f1bedeb9debbc19088ba71" ns2:_="">
-    <xsd:import namespace="77639793-85bb-4871-82ee-6889da43f668"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77639793-85bb-4871-82ee-6889da43f668" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A06C461-F364-4952-B3A0-63068DFF835F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFF640F9-EA5F-40C9-BD19-BA8A8C0F97C0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32E3429A-08D6-45BD-BB9D-B804CAA1AEC1}"/>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoNoronhaBlanco\Documents\Projeto_Lote45\Versão 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bridgeconsulting.sharepoint.com/sites/BridgeTechnology-SquadAthena/Shared Documents/Squad Athena/Lote 45 - Otimização da Operação/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728279A-6815-40DF-B0C7-FBA32C515626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C728279A-6815-40DF-B0C7-FBA32C515626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{849922CF-E9C0-4797-A5B3-2E992CCBDC4E}"/>
   <bookViews>
-    <workbookView xWindow="-19350" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atualização de preços" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:K196"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F66" si="0">IF($I$1="","",$I$1)</f>
@@ -2586,4 +2586,186 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100199BC4213F3CB24585709D692FB15876" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f3d6bc3c4c09fd003da19acc96b90d8b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77639793-85bb-4871-82ee-6889da43f668" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9020acd173f1bedeb9debbc19088ba71" ns2:_="">
+    <xsd:import namespace="77639793-85bb-4871-82ee-6889da43f668"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77639793-85bb-4871-82ee-6889da43f668" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70DBE234-2FCB-40B7-B891-BFEFDE50019D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="77639793-85bb-4871-82ee-6889da43f668"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6150E31-6586-4B34-BFEF-D5A2CAF00575}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FFCF3E5-627F-40D4-80F4-77ADF9F38A73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>